--- a/diploms/hod-back/_Resources/Patterns/ExcelPattern_Loads.xlsx
+++ b/diploms/hod-back/_Resources/Patterns/ExcelPattern_Loads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\Diplom\diploms\hod-back\_Resources\Patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CD278B-63A1-44FD-9CEC-A1EF2B1246A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079F275-77BE-4361-83D2-1FDA2DE4782C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" xr2:uid="{5EA9B01B-2979-4F6C-8F28-47E25E946877}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Дисциплина</t>
   </si>
   <si>
-    <t>Группа</t>
-  </si>
-  <si>
     <t>Семестр</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Экзамен</t>
+  </si>
+  <si>
+    <t>Направление</t>
   </si>
 </sst>
 </file>
@@ -106,16 +106,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -437,73 +440,73 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="27.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/diploms/hod-back/_Resources/Patterns/ExcelPattern_Loads.xlsx
+++ b/diploms/hod-back/_Resources/Patterns/ExcelPattern_Loads.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unic\Diplom\diploms\hod-back\_Resources\Patterns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079F275-77BE-4361-83D2-1FDA2DE4782C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB24933-0C19-46B7-BD77-4E4531F17EE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11745" xr2:uid="{5EA9B01B-2979-4F6C-8F28-47E25E946877}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t xml:space="preserve">Распределение нагрузки на осенний\весенний семестры </t>
-  </si>
-  <si>
     <t>Зачет</t>
   </si>
   <si>
@@ -55,6 +52,9 @@
   </si>
   <si>
     <t>Направление</t>
+  </si>
+  <si>
+    <t>Распределение нагрузки на осенний\весенний семестры на 2021-2022 года</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +458,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -500,10 +500,10 @@
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>5</v>
